--- a/template_bonus.xlsx
+++ b/template_bonus.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sha-n_kv29zfl\Desktop\VBA\VBA_FUNCTION_LIST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EF9723-C18D-4A5E-8402-12EC1F532A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC955B43-1226-4BF1-AFDB-8882FBDAE66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D8C8AA0-A790-4DD1-9D8A-5AF71A15F7AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{4D8C8AA0-A790-4DD1-9D8A-5AF71A15F7AE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
   <si>
     <t>賞与明細書</t>
     <rPh sb="0" eb="2">
@@ -559,6 +559,32 @@
     <t>支給日</t>
     <rPh sb="0" eb="3">
       <t>シキュウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支給日　令和〇年〇月〇日</t>
+    <rPh sb="0" eb="3">
+      <t>シキュウビ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>レイワ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇明細書</t>
+    <rPh sb="2" eb="5">
+      <t>メイサイショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -802,7 +828,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -912,6 +938,45 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -930,38 +995,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1281,7 +1319,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1298,17 +1336,16 @@
     <row r="1" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="37">
-        <f ca="1">TODAY()</f>
-        <v>44367</v>
-      </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="F2" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
@@ -1345,22 +1382,22 @@
     </row>
     <row r="6" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="E7" s="35" t="s">
+      <c r="C7" s="48"/>
+      <c r="E7" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="H7" s="35" t="s">
+      <c r="F7" s="48"/>
+      <c r="H7" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="K7" s="35" t="s">
+      <c r="I7" s="48"/>
+      <c r="K7" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="36"/>
+      <c r="L7" s="48"/>
     </row>
     <row r="8" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12"/>
@@ -1462,10 +1499,10 @@
       <c r="F17" s="20"/>
       <c r="H17" s="14"/>
       <c r="I17" s="20"/>
-      <c r="K17" s="35" t="s">
+      <c r="K17" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="L17" s="36"/>
+      <c r="L17" s="48"/>
     </row>
     <row r="18" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="16"/>
@@ -1624,7 +1661,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1655,18 +1692,18 @@
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="23"/>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="53">
         <f ca="1">TODAY()</f>
-        <v>44367</v>
-      </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44"/>
+        <v>44368</v>
+      </c>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
@@ -1675,15 +1712,15 @@
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="23"/>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
       <c r="K3" s="23"/>
@@ -1692,15 +1729,15 @@
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23"/>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="47"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="39"/>
       <c r="I4" s="23"/>
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
@@ -1709,15 +1746,15 @@
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="23"/>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="51"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="23"/>
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
@@ -1741,25 +1778,25 @@
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="23"/>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="40"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="23"/>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="40"/>
+      <c r="F7" s="52"/>
       <c r="G7" s="23"/>
-      <c r="H7" s="39" t="s">
+      <c r="H7" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="40"/>
+      <c r="I7" s="52"/>
       <c r="J7" s="23"/>
-      <c r="K7" s="39" t="s">
+      <c r="K7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="40"/>
+      <c r="L7" s="52"/>
       <c r="M7" s="23"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1924,10 +1961,10 @@
       <c r="H17" s="26"/>
       <c r="I17" s="30"/>
       <c r="J17" s="23"/>
-      <c r="K17" s="39" t="s">
+      <c r="K17" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="L17" s="40"/>
+      <c r="L17" s="52"/>
       <c r="M17" s="23"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1941,7 +1978,9 @@
       <c r="H18" s="27"/>
       <c r="I18" s="31"/>
       <c r="J18" s="23"/>
-      <c r="K18" s="25"/>
+      <c r="K18" s="44" t="s">
+        <v>46</v>
+      </c>
       <c r="L18" s="29"/>
       <c r="M18" s="23"/>
     </row>
@@ -1956,7 +1995,9 @@
       <c r="H19" s="26"/>
       <c r="I19" s="30"/>
       <c r="J19" s="23"/>
-      <c r="K19" s="26"/>
+      <c r="K19" s="45" t="s">
+        <v>47</v>
+      </c>
       <c r="L19" s="30"/>
       <c r="M19" s="23"/>
     </row>
@@ -1971,7 +2012,9 @@
       <c r="H20" s="27"/>
       <c r="I20" s="31"/>
       <c r="J20" s="23"/>
-      <c r="K20" s="27"/>
+      <c r="K20" s="46" t="s">
+        <v>48</v>
+      </c>
       <c r="L20" s="31"/>
       <c r="M20" s="23"/>
     </row>
